--- a/Plot_tool/xlsx/MSDS_8x8.xlsx
+++ b/Plot_tool/xlsx/MSDS_8x8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B74935B-81B4-4FCF-AEAC-04457E748E3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682E0C27-D628-4949-96F1-1317813A53B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14250" yWindow="1275" windowWidth="11310" windowHeight="11835" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="Mandrill" sheetId="6" r:id="rId6"/>
     <sheet name="Milkdrop" sheetId="7" r:id="rId7"/>
     <sheet name="Sailboat" sheetId="8" r:id="rId8"/>
+    <sheet name="TEST02" sheetId="10" r:id="rId9"/>
+    <sheet name="TEST19" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
   <si>
     <t>MSDS1</t>
     <phoneticPr fontId="16"/>
@@ -728,6 +730,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85487D41-966E-4B4A-A238-35BC056498A8}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
+        <v>481.689552307128</v>
+      </c>
+      <c r="B2" s="7">
+        <v>231.71569824218699</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;Cページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
@@ -1338,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1366,6 +1464,102 @@
       </c>
       <c r="B2" s="7">
         <v>4295.5261840820303</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;Cページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB4CA37-A3B2-43DA-9E10-AAD5827B2B69}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
+        <v>383.868858337402</v>
+      </c>
+      <c r="B2" s="7">
+        <v>205.773063659667</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>

--- a/Plot_tool/xlsx/MSDS_8x8.xlsx
+++ b/Plot_tool/xlsx/MSDS_8x8.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB942A3-8A46-4C0F-B023-ADD29A83E43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Airplane" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Barbara" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Boat" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Goldhill" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Lenna" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Mandrill" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Milkdrop" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sailboat" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="TEST02" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="TEST19" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="N8RGB" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Airplane" sheetId="1" r:id="rId1"/>
+    <sheet name="Barbara" sheetId="2" r:id="rId2"/>
+    <sheet name="Boat" sheetId="3" r:id="rId3"/>
+    <sheet name="Goldhill" sheetId="4" r:id="rId4"/>
+    <sheet name="Lenna" sheetId="5" r:id="rId5"/>
+    <sheet name="Mandrill" sheetId="6" r:id="rId6"/>
+    <sheet name="Milkdrop" sheetId="7" r:id="rId7"/>
+    <sheet name="Sailboat" sheetId="8" r:id="rId8"/>
+    <sheet name="TEST02" sheetId="9" r:id="rId9"/>
+    <sheet name="TEST19" sheetId="10" r:id="rId10"/>
+    <sheet name="N8RGB" sheetId="11" r:id="rId11"/>
+    <sheet name="N6RGB" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,46 +36,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="2">
   <si>
-    <t xml:space="preserve">MSDS1</t>
+    <t>MSDS1</t>
   </si>
   <si>
-    <t xml:space="preserve">MSDS2</t>
+    <t>MSDS2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="#,##0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -79,7 +68,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -94,7 +83,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -102,7 +91,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF808080"/>
       <name val="Arial"/>
@@ -117,7 +106,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -139,7 +128,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000EE"/>
       <name val="Arial"/>
@@ -179,6 +168,19 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Var(--jp-code-font-family)"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="9">
@@ -232,14 +234,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
@@ -255,157 +257,122 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+  <cellStyleXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 1 5" xfId="20"/>
-    <cellStyle name="Accent 2 6" xfId="21"/>
-    <cellStyle name="Accent 3 7" xfId="22"/>
-    <cellStyle name="Accent 4" xfId="23"/>
-    <cellStyle name="Bad 8" xfId="24"/>
-    <cellStyle name="Error 9" xfId="25"/>
-    <cellStyle name="Footnote 10" xfId="26"/>
-    <cellStyle name="Good 11" xfId="27"/>
-    <cellStyle name="Heading (user) 12" xfId="28"/>
-    <cellStyle name="Heading 1 13" xfId="29"/>
-    <cellStyle name="Heading 2 14" xfId="30"/>
-    <cellStyle name="Hyperlink 15" xfId="31"/>
-    <cellStyle name="Neutral 16" xfId="32"/>
-    <cellStyle name="Note 17" xfId="33"/>
-    <cellStyle name="Status 18" xfId="34"/>
-    <cellStyle name="Text 19" xfId="35"/>
-    <cellStyle name="Warning 20" xfId="36"/>
+  <cellStyles count="18">
+    <cellStyle name="Accent 1 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Accent 2 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Accent 3 7" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Accent 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Bad 8" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Error 9" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Footnote 10" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Good 11" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Heading (user) 12" xfId="9" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Heading 1 13" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Heading 2 14" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Hyperlink 15" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Neutral 16" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Note 17" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Status 18" xfId="15" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Text 19" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Warning 20" xfId="17" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -464,33 +431,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
+    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -499,57 +774,57 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
         <v>5980.7939453125</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="7">
         <v>3126.6953125</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8">
       <c r="B3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8">
       <c r="B4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8">
       <c r="B5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8">
       <c r="B6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8">
       <c r="B7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8">
       <c r="B8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8">
       <c r="B9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8">
       <c r="B10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8">
       <c r="B11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8">
       <c r="B13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8">
       <c r="B14" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>
@@ -557,26 +832,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -585,57 +857,57 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
         <v>481.689552307128</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>231.715698242187</v>
+      <c r="B2" s="7">
+        <v>231.71569824218699</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>
@@ -643,26 +915,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -671,57 +940,140 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
-        <v>9245.958984375</v>
-      </c>
-      <c r="B2" s="11" t="n">
-        <v>4649.69677734375</v>
+    <row r="2" spans="1:8">
+      <c r="A2" s="11">
+        <v>2422.7530212402298</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1682.1800994872999</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D790CD-B145-4858-81DD-9DFAE63A5731}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="11">
+        <v>7346.1974487304597</v>
+      </c>
+      <c r="B2" s="11">
+        <v>3341.0927429199201</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>
@@ -729,26 +1081,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -757,69 +1106,69 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
-        <v>18119.6839599609</v>
-      </c>
-      <c r="B2" s="7" t="n">
-        <v>6773.23040771484</v>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
+        <v>18119.683959960901</v>
+      </c>
+      <c r="B2" s="7">
+        <v>6773.2304077148401</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>
@@ -827,26 +1176,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -856,82 +1202,82 @@
       <c r="D1" s="4"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
-        <v>7261.26208496093</v>
-      </c>
-      <c r="B2" s="7" t="n">
-        <v>2879.8296508789</v>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
+        <v>7261.2620849609302</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2879.8296508788999</v>
       </c>
       <c r="D2" s="4"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="9"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="9"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="9"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="9"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="9"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="9"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="9"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="9"/>
       <c r="D14" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>
@@ -939,26 +1285,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -968,82 +1311,82 @@
       <c r="D1" s="4"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
-        <v>5622.58435058593</v>
-      </c>
-      <c r="B2" s="7" t="n">
-        <v>2120.85272216796</v>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
+        <v>5622.5843505859302</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2120.8527221679601</v>
       </c>
       <c r="D2" s="4"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="9"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="9"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="9"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="9"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="9"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="9"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="9"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="9"/>
       <c r="D14" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>
@@ -1051,26 +1394,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1080,82 +1420,82 @@
       <c r="D1" s="4"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
         <v>4730.8681640625</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="7">
         <v>1580.65747070312</v>
       </c>
       <c r="D2" s="4"/>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="9"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="9"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="9"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="9"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="9"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="9"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="9"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="9"/>
       <c r="D14" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>
@@ -1163,26 +1503,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1191,69 +1528,69 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
-        <v>28583.9331054687</v>
-      </c>
-      <c r="B2" s="7" t="n">
-        <v>8721.67181396484</v>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
+        <v>28583.933105468699</v>
+      </c>
+      <c r="B2" s="7">
+        <v>8721.6718139648401</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>
@@ -1261,26 +1598,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1289,69 +1623,69 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
         <v>2295.26611328125</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>1078.05401611328</v>
+      <c r="B2" s="7">
+        <v>1078.0540161132801</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>
@@ -1359,26 +1693,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1387,57 +1718,57 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
         <v>10530.8845214843</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>4295.52618408203</v>
+      <c r="B2" s="7">
+        <v>4295.5261840820303</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>
@@ -1445,26 +1776,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1473,57 +1801,57 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
         <v>383.868858337402</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="7">
         <v>205.773063659667</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>

--- a/Plot_tool/xlsx/MSDS_8x8.xlsx
+++ b/Plot_tool/xlsx/MSDS_8x8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB942A3-8A46-4C0F-B023-ADD29A83E43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E93F295-9693-4C65-9BD7-AEC49FD1BDFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="TEST19" sheetId="10" r:id="rId10"/>
     <sheet name="N8RGB" sheetId="11" r:id="rId11"/>
     <sheet name="N6RGB" sheetId="12" r:id="rId12"/>
+    <sheet name="Sailboat256" sheetId="13" r:id="rId13"/>
+    <sheet name="Trumpet" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="2">
   <si>
     <t>MSDS1</t>
   </si>
@@ -1001,6 +1003,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D790CD-B145-4858-81DD-9DFAE63A5731}">
   <dimension ref="A1:H14"/>
   <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="11">
+        <v>7346.1974487304597</v>
+      </c>
+      <c r="B2" s="11">
+        <v>3341.0927429199201</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4DC3F2-441B-4843-A6F4-0229D9A836AF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11">
+        <v>11272.37890625</v>
+      </c>
+      <c r="B2" s="11">
+        <v>4955.89990234375</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB9CDFD-9FEF-4F96-900A-AAC5753D08F0}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -1025,10 +1143,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11">
-        <v>7346.1974487304597</v>
+        <v>2422.7530212402298</v>
       </c>
       <c r="B2" s="11">
-        <v>3341.0927429199201</v>
+        <v>1682.1800994872999</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
